--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_DAKOTA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_DAKOTA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -807,12 +807,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C32">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C33">
@@ -960,7 +960,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C43">
@@ -1064,7 +1064,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C51">
@@ -1090,7 +1090,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C53">
@@ -1103,7 +1103,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C54">
@@ -1129,7 +1129,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C56">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1186,7 +1186,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C60">
@@ -1212,7 +1212,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C62">
@@ -1238,7 +1238,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C64">
@@ -1271,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="D66">
-        <v>0.09644670050761421</v>
+        <v>0.0964467005076142</v>
       </c>
     </row>
     <row r="67">
@@ -1295,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C68">
@@ -1334,7 +1334,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C71">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C73">
@@ -1443,7 +1443,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C79">
@@ -1469,7 +1469,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C81">
@@ -1508,7 +1508,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C84">
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="D86">
-        <v>0.09644670050761421</v>
+        <v>0.0964467005076142</v>
       </c>
     </row>
     <row r="87">
@@ -1767,7 +1767,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C102">
@@ -2055,7 +2055,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C123">
@@ -2156,7 +2156,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C130">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C136">
@@ -2301,7 +2301,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C140">
@@ -2327,7 +2327,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C142">
@@ -2340,7 +2340,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C143">
@@ -2353,7 +2353,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C144">
@@ -2366,7 +2366,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C145">
@@ -2405,7 +2405,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C148">
@@ -2535,41 +2535,6 @@
       </c>
       <c r="D157">
         <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_DAKOTA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_DAKOTA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Chínipas</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Guazapares</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tamazula</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>León</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Jaltocán</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1874,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Sebastián Tlacotepec</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1952,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2014,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>El Naranjo</t>
@@ -2027,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2040,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2097,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -2110,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -2154,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -2167,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2198,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -2211,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -2224,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2255,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2286,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2299,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Cosautlán De Carvajal</t>
@@ -2312,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2325,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2338,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -2351,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2364,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -2377,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2390,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -2403,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2416,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2429,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2442,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -2455,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2486,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2499,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -2512,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Total</t>
